--- a/biology/Histoire de la zoologie et de la botanique/Jean_Augier/Jean_Augier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Augier/Jean_Augier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbé Jean Augier, né le 15 mars 1909 à Paris 18e et mort le 8 avril 1997 à Paris 14e[1], est un prêtre sulpicien et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbé Jean Augier, né le 15 mars 1909 à Paris 18e et mort le 8 avril 1997 à Paris 14e, est un prêtre sulpicien et botaniste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut professeur de botanique à l'Institut catholique de Paris et à l'Université de Yaoundé. On lui doit notamment un herbier des bryophytes du Cameroun où il effectua plusieurs séjours[2]. Ses principaux travaux portent sur les Rhodophyceae et sur les bryophytes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut professeur de botanique à l'Institut catholique de Paris et à l'Université de Yaoundé. On lui doit notamment un herbier des bryophytes du Cameroun où il effectua plusieurs séjours. Ses principaux travaux portent sur les Rhodophyceae et sur les bryophytes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1967 il reçut le prix de Coincy[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1967 il reçut le prix de Coincy.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Constitution et biologie des rhodophycées d'eau douce, imprimerie L. Jean, Gap, 1934
 Les unités naturelles du monde végétal : essai sur la classification, comme terme de la connaissance en biologie, Beauchesne, Paris, 1942
